--- a/Scraping_Midas/update midas/categories/Midas category(1).xlsx
+++ b/Scraping_Midas/update midas/categories/Midas category(1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="231">
   <si>
     <t xml:space="preserve">Name of category </t>
   </si>
@@ -724,7 +724,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -830,6 +830,24 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF303030"/>
+      <name val="Open Sans"/>
+      <family val="0"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -898,7 +916,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1005,6 +1023,18 @@
     </xf>
     <xf numFmtId="165" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1084,13 +1114,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X111"/>
+  <dimension ref="A1:X123"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B123" activeCellId="0" sqref="B123:G123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="38.14"/>
   </cols>
@@ -2354,6 +2384,138 @@
         <v>113</v>
       </c>
     </row>
+    <row r="112" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="23.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
